--- a/public/files/alumni_format.xlsx
+++ b/public/files/alumni_format.xlsx
@@ -1,40 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allyssa\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CF81D7-99C5-400F-BF08-F0535B28151D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09CF54E0-0BF3-4FA0-B28E-ACE5DC97759D}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>First Name</t>
   </si>
@@ -64,19 +45,97 @@
   </si>
   <si>
     <t>Section</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Alumni Image</t>
+  </si>
+  <si>
+    <t>Allyssa Jane</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>Estacamento</t>
+  </si>
+  <si>
+    <t>alumni01@gmail.com</t>
+  </si>
+  <si>
+    <t>school_alumni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor of Science in Information Technology (BSIT) </t>
+  </si>
+  <si>
+    <t>Cum Laude</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Kristelle Joy</t>
+  </si>
+  <si>
+    <t>N.</t>
+  </si>
+  <si>
+    <t>Bendicio</t>
+  </si>
+  <si>
+    <t>alumni02@gmail.com</t>
+  </si>
+  <si>
+    <t>Celino</t>
+  </si>
+  <si>
+    <t>Macasunod Jr.</t>
+  </si>
+  <si>
+    <t>alumni03@gmail.com</t>
+  </si>
+  <si>
+    <t>Graphic Designer of the Year</t>
+  </si>
+  <si>
+    <t>unpaid</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>Vivo</t>
+  </si>
+  <si>
+    <t>alumni04@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,40 +143,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -132,44 +179,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -197,31 +244,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -249,23 +279,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -277,200 +290,387 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1961A33-C223-496F-9126-ACDBC761C833}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>2000250930</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>9453917972</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>2024</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>2024</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>2000131362</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>9270839877</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>2024</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>2024</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/public/files/alumni_format.xlsx
+++ b/public/files/alumni_format.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>First Name</t>
   </si>
@@ -26,9 +30,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>School ID Number</t>
-  </si>
-  <si>
     <t>Email Address</t>
   </si>
   <si>
@@ -56,7 +57,10 @@
     <t>Alumni Image</t>
   </si>
   <si>
-    <t>Allyssa Jane</t>
+    <t>Alumni ID Number</t>
+  </si>
+  <si>
+    <t>Allyssa</t>
   </si>
   <si>
     <t>D.</t>
@@ -65,76 +69,44 @@
     <t>Estacamento</t>
   </si>
   <si>
-    <t>alumni01@gmail.com</t>
+    <t>alumni@gmail.com</t>
   </si>
   <si>
     <t>school_alumni</t>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor of Science in Information Technology (BSIT) </t>
-  </si>
-  <si>
     <t>Cum Laude</t>
   </si>
   <si>
     <t>paid</t>
   </si>
   <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>Kristelle Joy</t>
-  </si>
-  <si>
-    <t>N.</t>
-  </si>
-  <si>
-    <t>Bendicio</t>
-  </si>
-  <si>
-    <t>alumni02@gmail.com</t>
-  </si>
-  <si>
-    <t>Celino</t>
-  </si>
-  <si>
-    <t>Macasunod Jr.</t>
-  </si>
-  <si>
-    <t>alumni03@gmail.com</t>
-  </si>
-  <si>
-    <t>Graphic Designer of the Year</t>
-  </si>
-  <si>
-    <t>unpaid</t>
-  </si>
-  <si>
-    <t>Kenneth</t>
-  </si>
-  <si>
-    <t>B.</t>
-  </si>
-  <si>
-    <t>Vivo</t>
-  </si>
-  <si>
-    <t>alumni04@gmail.com</t>
+    <t>https://i.imgur.com/MtYF153.jpg</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Information Technology (BSIT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -143,28 +115,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,223 +439,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2000250930</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>9453917972</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>2024</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>2024</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>2000131362</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <v>9270839877</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>2024</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>2024</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <dataValidations count="16">
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>"First Name"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"Middle Name"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"Last Name"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>"Alumni ID Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"Email Address"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>"Contact"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"school_alumni"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+      <formula1>"User Type"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"2020, 2021, 2022, 2023, 2024, 2025"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+      <formula1>"Class Batch"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+      <formula1>"Section"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+      <formula1>"Award"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"paid, unpaid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+      <formula1>"Payment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+      <formula1>"Alumni Image"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>"Program"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/files/alumni_format.xlsx
+++ b/public/files/alumni_format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -58,33 +58,6 @@
   </si>
   <si>
     <t>Alumni ID Number</t>
-  </si>
-  <si>
-    <t>Allyssa</t>
-  </si>
-  <si>
-    <t>D.</t>
-  </si>
-  <si>
-    <t>Estacamento</t>
-  </si>
-  <si>
-    <t>alumni@gmail.com</t>
-  </si>
-  <si>
-    <t>school_alumni</t>
-  </si>
-  <si>
-    <t>Cum Laude</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/MtYF153.jpg</t>
-  </si>
-  <si>
-    <t>Bachelor of Science in Information Technology (BSIT)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +416,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,45 +479,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2000250930</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9453917972</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2024</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -598,11 +534,7 @@
       <formula1>"Program"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>